--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C700AB-9D8C-4B00-8945-E1E33E1011F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC04A0-5983-43D6-B0F6-B5D347AA11D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -1581,23 +1581,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2208,8 +2208,8 @@
   </sheetPr>
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2262,106 +2262,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
         <v>45028</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -4222,20 +4222,19 @@
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="40">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E25" s="82">
         <f>F21+3</f>
         <v>45059</v>
       </c>
       <c r="F25" s="82">
-        <f>E25+4</f>
-        <v>45063</v>
+        <v>45062</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="36">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -4305,11 +4304,11 @@
       </c>
       <c r="E26" s="82">
         <f>F25+3</f>
-        <v>45066</v>
+        <v>45065</v>
       </c>
       <c r="F26" s="82">
         <f>E26+4</f>
-        <v>45070</v>
+        <v>45069</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36">
@@ -4382,11 +4381,11 @@
       <c r="D27" s="40"/>
       <c r="E27" s="82">
         <f>F26+3</f>
-        <v>45073</v>
+        <v>45072</v>
       </c>
       <c r="F27" s="82">
         <f>E27+4</f>
-        <v>45077</v>
+        <v>45076</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36">
@@ -5277,17 +5276,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D38">
@@ -5468,15 +5467,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -5485,6 +5475,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5693,14 +5692,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5713,6 +5704,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DC04A0-5983-43D6-B0F6-B5D347AA11D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9FAF09-5001-4870-B392-4C4CB265F081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -528,6 +528,19 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ロック画面に天気の表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1581,6 +1594,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1592,12 +1611,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2206,11 +2219,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL41"/>
+  <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2262,106 +2275,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="92">
+      <c r="D3" s="90"/>
+      <c r="E3" s="94">
         <v>45028</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2926,7 +2939,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H38" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H39" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -4294,27 +4307,18 @@
       <c r="BL25" s="5"/>
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="86" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="40">
-        <v>0</v>
-      </c>
+      <c r="D26" s="40"/>
       <c r="E26" s="82">
-        <f>F25+3</f>
-        <v>45065</v>
-      </c>
-      <c r="F26" s="82">
-        <f>E26+4</f>
-        <v>45069</v>
-      </c>
+        <v>45063</v>
+      </c>
+      <c r="F26" s="82"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="36">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H26" s="36"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4327,8 +4331,8 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
@@ -4375,17 +4379,19 @@
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="86" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="40">
+        <v>0</v>
+      </c>
       <c r="E27" s="82">
-        <f>F26+3</f>
-        <v>45072</v>
+        <f>F25+3</f>
+        <v>45065</v>
       </c>
       <c r="F27" s="82">
         <f>E27+4</f>
-        <v>45076</v>
+        <v>45069</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36">
@@ -4404,8 +4410,8 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
@@ -4450,20 +4456,24 @@
       <c r="BL27" s="5"/>
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="82">
+        <f>F27+3</f>
+        <v>45072</v>
+      </c>
+      <c r="F28" s="82">
+        <f>E28+4</f>
+        <v>45076</v>
+      </c>
       <c r="G28" s="36"/>
-      <c r="H28" s="36" t="str">
+      <c r="H28" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -4523,22 +4533,20 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="83" t="s">
-        <v>23</v>
-      </c>
+      <c r="A29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="36" t="e">
+      <c r="H29" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4600,7 +4608,7 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="43"/>
@@ -4675,7 +4683,7 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="43"/>
@@ -4748,20 +4756,22 @@
       <c r="BL31" s="5"/>
     </row>
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="83" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="36"/>
-      <c r="H32" s="36" t="str">
+      <c r="H32" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4821,22 +4831,20 @@
       <c r="BL32" s="5"/>
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="84" t="s">
-        <v>23</v>
-      </c>
+      <c r="A33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="36" t="e">
+      <c r="H33" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4898,7 +4906,7 @@
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="46"/>
@@ -4973,7 +4981,7 @@
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="46"/>
@@ -5048,7 +5056,7 @@
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="46"/>
@@ -5121,18 +5129,22 @@
       <c r="BL36" s="5"/>
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>23</v>
+      </c>
       <c r="G37" s="36"/>
-      <c r="H37" s="36" t="str">
+      <c r="H37" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5192,104 +5204,175 @@
       <c r="BL37" s="5"/>
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51" t="str">
+      <c r="A38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7"/>
-      <c r="AJ38" s="7"/>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
-      <c r="AP38" s="7"/>
-      <c r="AQ38" s="7"/>
-      <c r="AR38" s="7"/>
-      <c r="AS38" s="7"/>
-      <c r="AT38" s="7"/>
-      <c r="AU38" s="7"/>
-      <c r="AV38" s="7"/>
-      <c r="AW38" s="7"/>
-      <c r="AX38" s="7"/>
-      <c r="AY38" s="7"/>
-      <c r="AZ38" s="7"/>
-      <c r="BA38" s="7"/>
-      <c r="BB38" s="7"/>
-      <c r="BC38" s="7"/>
-      <c r="BD38" s="7"/>
-      <c r="BE38" s="7"/>
-      <c r="BF38" s="7"/>
-      <c r="BG38" s="7"/>
-      <c r="BH38" s="7"/>
-      <c r="BI38" s="7"/>
-      <c r="BJ38" s="7"/>
-      <c r="BK38" s="7"/>
-      <c r="BL38" s="7"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="5"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="3"/>
+    <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7"/>
+      <c r="AZ39" s="7"/>
+      <c r="BA39" s="7"/>
+      <c r="BB39" s="7"/>
+      <c r="BC39" s="7"/>
+      <c r="BD39" s="7"/>
+      <c r="BE39" s="7"/>
+      <c r="BF39" s="7"/>
+      <c r="BG39" s="7"/>
+      <c r="BH39" s="7"/>
+      <c r="BI39" s="7"/>
+      <c r="BJ39" s="7"/>
+      <c r="BK39" s="7"/>
+      <c r="BL39" s="7"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="52"/>
-      <c r="F40" s="53"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="54"/>
+      <c r="C41" s="52"/>
+      <c r="F41" s="53"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D38">
+  <conditionalFormatting sqref="D7:D39">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5303,12 +5386,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL38">
+  <conditionalFormatting sqref="I5:BL39">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL38">
+  <conditionalFormatting sqref="I7:BL39">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -5332,7 +5415,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="16383" man="1"/>
+    <brk id="38" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5350,7 +5433,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D38</xm:sqref>
+          <xm:sqref>D7:D39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5467,6 +5550,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -5475,15 +5567,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5692,6 +5775,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5704,14 +5795,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9FAF09-5001-4870-B392-4C4CB265F081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D6451-FD45-4BC9-B1D0-17B1376C277B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -541,6 +541,16 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>背景画像の設定</t>
+    <rPh sb="0" eb="4">
+      <t>ハイケイガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1594,23 +1604,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2219,11 +2229,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL42"/>
+  <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2275,106 +2285,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
         <v>45028</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2939,7 +2949,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H39" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H40" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -4312,11 +4322,15 @@
         <v>72</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="40"/>
+      <c r="D26" s="40">
+        <v>1</v>
+      </c>
       <c r="E26" s="82">
         <v>45063</v>
       </c>
-      <c r="F26" s="82"/>
+      <c r="F26" s="82">
+        <v>45064</v>
+      </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="5"/>
@@ -4377,27 +4391,16 @@
       <c r="BL26" s="5"/>
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="86" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="40">
-        <v>0</v>
-      </c>
-      <c r="E27" s="82">
-        <f>F25+3</f>
-        <v>45065</v>
-      </c>
-      <c r="F27" s="82">
-        <f>E27+4</f>
-        <v>45069</v>
-      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="36"/>
-      <c r="H27" s="36">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H27" s="36"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4410,8 +4413,8 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
@@ -4458,17 +4461,19 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="86" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="40"/>
+      <c r="D28" s="40">
+        <v>0</v>
+      </c>
       <c r="E28" s="82">
-        <f>F27+3</f>
-        <v>45072</v>
+        <f>F25+3</f>
+        <v>45065</v>
       </c>
       <c r="F28" s="82">
         <f>E28+4</f>
-        <v>45076</v>
+        <v>45069</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36">
@@ -4487,8 +4492,8 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
@@ -4533,20 +4538,25 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="82">
+        <v>45061</v>
+      </c>
+      <c r="F29" s="82">
+        <f>E29+4</f>
+        <v>45065</v>
+      </c>
       <c r="G29" s="36"/>
-      <c r="H29" s="36" t="str">
+      <c r="H29" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4606,22 +4616,20 @@
       <c r="BL29" s="5"/>
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>23</v>
-      </c>
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="36" t="e">
+      <c r="H30" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4683,7 +4691,7 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="43"/>
@@ -4758,7 +4766,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="43"/>
@@ -4831,20 +4839,22 @@
       <c r="BL32" s="5"/>
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>23</v>
+      </c>
       <c r="G33" s="36"/>
-      <c r="H33" s="36" t="str">
+      <c r="H33" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4904,22 +4914,20 @@
       <c r="BL33" s="5"/>
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="84" t="s">
-        <v>23</v>
-      </c>
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="36" t="e">
+      <c r="H34" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4981,7 +4989,7 @@
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="46"/>
@@ -5056,7 +5064,7 @@
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="46"/>
@@ -5131,7 +5139,7 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="46"/>
@@ -5204,18 +5212,22 @@
       <c r="BL37" s="5"/>
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="84" t="s">
+        <v>23</v>
+      </c>
       <c r="G38" s="36"/>
-      <c r="H38" s="36" t="str">
+      <c r="H38" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5275,104 +5287,175 @@
       <c r="BL38" s="5"/>
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51" t="str">
+      <c r="A39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7"/>
-      <c r="AQ39" s="7"/>
-      <c r="AR39" s="7"/>
-      <c r="AS39" s="7"/>
-      <c r="AT39" s="7"/>
-      <c r="AU39" s="7"/>
-      <c r="AV39" s="7"/>
-      <c r="AW39" s="7"/>
-      <c r="AX39" s="7"/>
-      <c r="AY39" s="7"/>
-      <c r="AZ39" s="7"/>
-      <c r="BA39" s="7"/>
-      <c r="BB39" s="7"/>
-      <c r="BC39" s="7"/>
-      <c r="BD39" s="7"/>
-      <c r="BE39" s="7"/>
-      <c r="BF39" s="7"/>
-      <c r="BG39" s="7"/>
-      <c r="BH39" s="7"/>
-      <c r="BI39" s="7"/>
-      <c r="BJ39" s="7"/>
-      <c r="BK39" s="7"/>
-      <c r="BL39" s="7"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="3"/>
+    <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7"/>
+      <c r="AZ40" s="7"/>
+      <c r="BA40" s="7"/>
+      <c r="BB40" s="7"/>
+      <c r="BC40" s="7"/>
+      <c r="BD40" s="7"/>
+      <c r="BE40" s="7"/>
+      <c r="BF40" s="7"/>
+      <c r="BG40" s="7"/>
+      <c r="BH40" s="7"/>
+      <c r="BI40" s="7"/>
+      <c r="BJ40" s="7"/>
+      <c r="BK40" s="7"/>
+      <c r="BL40" s="7"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="52"/>
-      <c r="F41" s="53"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="54"/>
+      <c r="C42" s="52"/>
+      <c r="F42" s="53"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D39">
+  <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5386,12 +5469,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL39">
+  <conditionalFormatting sqref="I5:BL40">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL39">
+  <conditionalFormatting sqref="I7:BL40">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -5415,7 +5498,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
+    <brk id="39" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5433,7 +5516,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D39</xm:sqref>
+          <xm:sqref>D7:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5550,15 +5633,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -5567,6 +5641,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5775,14 +5858,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5795,6 +5870,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D6451-FD45-4BC9-B1D0-17B1376C277B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62B856-F90C-479C-8057-3F1D50C36411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -551,6 +551,16 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ひとつ前のシーンに戻る</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1604,6 +1614,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1615,12 +1631,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2229,11 +2239,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BL44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2285,106 +2295,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="92">
+      <c r="D3" s="90"/>
+      <c r="E3" s="94">
         <v>45028</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2949,7 +2959,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H40" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H41" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -4459,27 +4469,18 @@
       <c r="BL27" s="5"/>
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="86" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="40">
-        <v>0</v>
-      </c>
+      <c r="D28" s="40"/>
       <c r="E28" s="82">
-        <f>F25+3</f>
         <v>45065</v>
       </c>
-      <c r="F28" s="82">
-        <f>E28+4</f>
-        <v>45069</v>
-      </c>
+      <c r="F28" s="82"/>
       <c r="G28" s="36"/>
-      <c r="H28" s="36">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H28" s="36"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4492,8 +4493,8 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
@@ -4540,18 +4541,19 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="86" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="82">
-        <v>45061</v>
+        <f>F25+3</f>
+        <v>45065</v>
       </c>
       <c r="F29" s="82">
         <f>E29+4</f>
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36">
@@ -4570,8 +4572,8 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
@@ -4616,20 +4618,25 @@
       <c r="BL29" s="5"/>
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="82">
+        <v>45061</v>
+      </c>
+      <c r="F30" s="82">
+        <f>E30+4</f>
+        <v>45065</v>
+      </c>
       <c r="G30" s="36"/>
-      <c r="H30" s="36" t="str">
+      <c r="H30" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4689,22 +4696,20 @@
       <c r="BL30" s="5"/>
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>23</v>
-      </c>
+      <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
       <c r="G31" s="36"/>
-      <c r="H31" s="36" t="e">
+      <c r="H31" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4766,7 +4771,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="43"/>
@@ -4841,7 +4846,7 @@
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="43"/>
@@ -4914,20 +4919,22 @@
       <c r="BL33" s="5"/>
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="74"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>23</v>
+      </c>
       <c r="G34" s="36"/>
-      <c r="H34" s="36" t="str">
+      <c r="H34" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4987,22 +4994,20 @@
       <c r="BL34" s="5"/>
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>23</v>
-      </c>
+      <c r="A35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="36" t="e">
+      <c r="H35" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5064,7 +5069,7 @@
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="46"/>
@@ -5139,7 +5144,7 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="46"/>
@@ -5214,7 +5219,7 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="46"/>
@@ -5287,18 +5292,22 @@
       <c r="BL38" s="5"/>
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="84" t="s">
+        <v>23</v>
+      </c>
       <c r="G39" s="36"/>
-      <c r="H39" s="36" t="str">
+      <c r="H39" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -5358,104 +5367,175 @@
       <c r="BL39" s="5"/>
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51" t="str">
+      <c r="A40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
-      <c r="AM40" s="7"/>
-      <c r="AN40" s="7"/>
-      <c r="AO40" s="7"/>
-      <c r="AP40" s="7"/>
-      <c r="AQ40" s="7"/>
-      <c r="AR40" s="7"/>
-      <c r="AS40" s="7"/>
-      <c r="AT40" s="7"/>
-      <c r="AU40" s="7"/>
-      <c r="AV40" s="7"/>
-      <c r="AW40" s="7"/>
-      <c r="AX40" s="7"/>
-      <c r="AY40" s="7"/>
-      <c r="AZ40" s="7"/>
-      <c r="BA40" s="7"/>
-      <c r="BB40" s="7"/>
-      <c r="BC40" s="7"/>
-      <c r="BD40" s="7"/>
-      <c r="BE40" s="7"/>
-      <c r="BF40" s="7"/>
-      <c r="BG40" s="7"/>
-      <c r="BH40" s="7"/>
-      <c r="BI40" s="7"/>
-      <c r="BJ40" s="7"/>
-      <c r="BK40" s="7"/>
-      <c r="BL40" s="7"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="5"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="3"/>
+    <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="7"/>
+      <c r="AZ41" s="7"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7"/>
+      <c r="BC41" s="7"/>
+      <c r="BD41" s="7"/>
+      <c r="BE41" s="7"/>
+      <c r="BF41" s="7"/>
+      <c r="BG41" s="7"/>
+      <c r="BH41" s="7"/>
+      <c r="BI41" s="7"/>
+      <c r="BJ41" s="7"/>
+      <c r="BK41" s="7"/>
+      <c r="BL41" s="7"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="52"/>
-      <c r="F42" s="53"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="54"/>
+      <c r="C43" s="52"/>
+      <c r="F43" s="53"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D40">
+  <conditionalFormatting sqref="D7:D41">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5469,12 +5549,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL40">
+  <conditionalFormatting sqref="I5:BL41">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL40">
+  <conditionalFormatting sqref="I7:BL41">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -5498,7 +5578,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="39" max="16383" man="1"/>
+    <brk id="40" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5516,7 +5596,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D40</xm:sqref>
+          <xm:sqref>D7:D41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5633,6 +5713,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -5641,15 +5730,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5858,6 +5938,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5870,14 +5958,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62B856-F90C-479C-8057-3F1D50C36411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D004735-9F40-4728-8FE8-CEAF3DE53478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,16 +322,6 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>会話するボット（空気読みみたいな）</t>
-    <rPh sb="0" eb="2">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>クウキヨ</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
     <t>チャットボットを選択する画面</t>
     <rPh sb="8" eb="10">
       <t>センタク</t>
@@ -561,6 +551,13 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>サイコパス診断</t>
+    <rPh sb="5" eb="7">
+      <t>シンダン</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1614,23 +1611,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2242,8 +2239,8 @@
   <dimension ref="A1:BL44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2295,106 +2292,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
         <v>45028</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -3423,7 +3420,7 @@
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="37">
@@ -3576,7 +3573,7 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="37">
@@ -3650,7 +3647,7 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="37">
@@ -3726,7 +3723,7 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="37">
@@ -3802,7 +3799,7 @@
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="37">
@@ -3951,7 +3948,7 @@
     <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="40">
@@ -4029,7 +4026,7 @@
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="40">
@@ -4103,7 +4100,7 @@
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="40">
@@ -4177,7 +4174,7 @@
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="40">
@@ -4329,7 +4326,7 @@
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="40">
@@ -4403,12 +4400,18 @@
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
+      <c r="D27" s="40">
+        <v>1</v>
+      </c>
+      <c r="E27" s="82">
+        <v>45068</v>
+      </c>
+      <c r="F27" s="82">
+        <v>45068</v>
+      </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="5"/>
@@ -4471,14 +4474,18 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="40"/>
+      <c r="D28" s="40">
+        <v>1</v>
+      </c>
       <c r="E28" s="82">
-        <v>45065</v>
-      </c>
-      <c r="F28" s="82"/>
+        <v>45069</v>
+      </c>
+      <c r="F28" s="82">
+        <v>45069</v>
+      </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="5"/>
@@ -4541,7 +4548,7 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="86" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="40">
@@ -4620,7 +4627,7 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="86" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="40">
@@ -4771,7 +4778,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="43"/>
@@ -4846,7 +4853,7 @@
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="43"/>
@@ -4921,7 +4928,7 @@
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="43"/>
@@ -5069,7 +5076,7 @@
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="46"/>
@@ -5144,7 +5151,7 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="46"/>
@@ -5219,7 +5226,7 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="46"/>
@@ -5294,7 +5301,7 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="46"/>
@@ -5522,17 +5529,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D41">
@@ -5713,15 +5720,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -5730,6 +5728,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5938,14 +5945,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5958,6 +5957,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D004735-9F40-4728-8FE8-CEAF3DE53478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A82042-8EFF-484A-80DC-104008F6A950}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -558,6 +558,29 @@
     <t>サイコパス診断</t>
     <rPh sb="5" eb="7">
       <t>シンダン</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>一文字ずつ表示する</t>
+    <rPh sb="0" eb="3">
+      <t>ヒトモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>入力するタイプの問題を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1611,6 +1634,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1622,12 +1651,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2236,11 +2259,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL44"/>
+  <dimension ref="A1:BL46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2292,106 +2315,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="92">
+      <c r="D3" s="90"/>
+      <c r="E3" s="94">
         <v>45028</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2956,7 +2979,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H41" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H43" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -4546,27 +4569,22 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="86" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="82">
-        <f>F25+3</f>
-        <v>45065</v>
+        <v>45070</v>
       </c>
       <c r="F29" s="82">
-        <f>E29+4</f>
-        <v>45069</v>
+        <v>45071</v>
       </c>
       <c r="G29" s="36"/>
-      <c r="H29" s="36">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H29" s="36"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -4579,8 +4597,8 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
@@ -4625,26 +4643,22 @@
       <c r="BL29" s="5"/>
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="86" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="40">
         <v>0.5</v>
       </c>
       <c r="E30" s="82">
-        <v>45061</v>
+        <v>45070</v>
       </c>
       <c r="F30" s="82">
-        <f>E30+4</f>
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="G30" s="36"/>
-      <c r="H30" s="36">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H30" s="36"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -4703,20 +4717,26 @@
       <c r="BL30" s="5"/>
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="40">
+        <v>0</v>
+      </c>
+      <c r="E31" s="82">
+        <f>F25+3</f>
+        <v>45065</v>
+      </c>
+      <c r="F31" s="82">
+        <f>E31+4</f>
+        <v>45069</v>
+      </c>
       <c r="G31" s="36"/>
-      <c r="H31" s="36" t="str">
+      <c r="H31" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4730,8 +4750,8 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
@@ -4777,21 +4797,24 @@
     </row>
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
-      <c r="B32" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="83" t="s">
-        <v>23</v>
+      <c r="B32" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="82">
+        <v>45061</v>
+      </c>
+      <c r="F32" s="82">
+        <f>E32+4</f>
+        <v>45065</v>
       </c>
       <c r="G32" s="36"/>
-      <c r="H32" s="36" t="e">
+      <c r="H32" s="36">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4851,22 +4874,20 @@
       <c r="BL32" s="5"/>
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="83" t="s">
-        <v>23</v>
-      </c>
+      <c r="A33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="36" t="e">
+      <c r="H33" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4928,7 +4949,7 @@
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="43"/>
@@ -5001,20 +5022,22 @@
       <c r="BL34" s="5"/>
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="74"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>23</v>
+      </c>
       <c r="G35" s="36"/>
-      <c r="H35" s="36" t="str">
+      <c r="H35" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5075,15 +5098,15 @@
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
-      <c r="B36" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="84" t="s">
+      <c r="B36" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="83" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="36"/>
@@ -5149,22 +5172,20 @@
       <c r="BL36" s="5"/>
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="84" t="s">
-        <v>23</v>
-      </c>
+      <c r="A37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="36"/>
-      <c r="H37" s="36" t="e">
+      <c r="H37" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5226,7 +5247,7 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="46"/>
@@ -5301,7 +5322,7 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="46"/>
@@ -5374,18 +5395,22 @@
       <c r="BL39" s="5"/>
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>23</v>
+      </c>
       <c r="G40" s="36"/>
-      <c r="H40" s="36" t="str">
+      <c r="H40" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5445,104 +5470,250 @@
       <c r="BL40" s="5"/>
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51" t="str">
+      <c r="A41" s="8"/>
+      <c r="B41" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="5"/>
+    </row>
+    <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="7"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7"/>
-      <c r="AJ41" s="7"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
-      <c r="AM41" s="7"/>
-      <c r="AN41" s="7"/>
-      <c r="AO41" s="7"/>
-      <c r="AP41" s="7"/>
-      <c r="AQ41" s="7"/>
-      <c r="AR41" s="7"/>
-      <c r="AS41" s="7"/>
-      <c r="AT41" s="7"/>
-      <c r="AU41" s="7"/>
-      <c r="AV41" s="7"/>
-      <c r="AW41" s="7"/>
-      <c r="AX41" s="7"/>
-      <c r="AY41" s="7"/>
-      <c r="AZ41" s="7"/>
-      <c r="BA41" s="7"/>
-      <c r="BB41" s="7"/>
-      <c r="BC41" s="7"/>
-      <c r="BD41" s="7"/>
-      <c r="BE41" s="7"/>
-      <c r="BF41" s="7"/>
-      <c r="BG41" s="7"/>
-      <c r="BH41" s="7"/>
-      <c r="BI41" s="7"/>
-      <c r="BJ41" s="7"/>
-      <c r="BK41" s="7"/>
-      <c r="BL41" s="7"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
     </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="52"/>
-      <c r="F43" s="53"/>
+    <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="7"/>
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="7"/>
+      <c r="AY43" s="7"/>
+      <c r="AZ43" s="7"/>
+      <c r="BA43" s="7"/>
+      <c r="BB43" s="7"/>
+      <c r="BC43" s="7"/>
+      <c r="BD43" s="7"/>
+      <c r="BE43" s="7"/>
+      <c r="BF43" s="7"/>
+      <c r="BG43" s="7"/>
+      <c r="BH43" s="7"/>
+      <c r="BI43" s="7"/>
+      <c r="BJ43" s="7"/>
+      <c r="BK43" s="7"/>
+      <c r="BL43" s="7"/>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="54"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="52"/>
+      <c r="F45" s="53"/>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D41">
+  <conditionalFormatting sqref="D7:D43">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5556,12 +5727,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL41">
+  <conditionalFormatting sqref="I5:BL43">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL41">
+  <conditionalFormatting sqref="I7:BL43">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -5585,7 +5756,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="40" max="16383" man="1"/>
+    <brk id="42" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5603,7 +5774,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D41</xm:sqref>
+          <xm:sqref>D7:D43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5720,6 +5891,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -5728,15 +5908,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5945,6 +6116,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5957,14 +6136,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A82042-8EFF-484A-80DC-104008F6A950}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB944DF-5AB0-4D82-A81C-18BD8BB450AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -572,15 +572,75 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>入力するタイプの問題を追加</t>
+    <t>上記の影響修正</t>
     <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>心理テストで入力するタイプの問題を追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>サイコパス診断で入力するタイプの問題を追加</t>
+    <rPh sb="5" eb="7">
+      <t>シンダン</t>
+    </rPh>
     <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="19" eb="21">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>サイコパス診断で選んだ選択肢でptを加算し、最後に総合的なサイコパス度を出す</t>
+    <rPh sb="5" eb="7">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ソウゴウテキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1386,7 +1446,7 @@
     <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1633,6 +1693,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -2259,11 +2322,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL46"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2315,106 +2378,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+      <c r="D3" s="91"/>
+      <c r="E3" s="95">
         <v>45028</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2979,7 +3042,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H43" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H46" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -4571,7 +4634,7 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="86" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="40">
@@ -4581,7 +4644,7 @@
         <v>45070</v>
       </c>
       <c r="F29" s="82">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
@@ -4649,13 +4712,13 @@
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="82">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="F30" s="82">
-        <v>45071</v>
+        <v>45076</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
@@ -4717,27 +4780,22 @@
       <c r="BL30" s="5"/>
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="86" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="82">
-        <f>F25+3</f>
-        <v>45065</v>
-      </c>
-      <c r="F31" s="82">
-        <f>E31+4</f>
-        <v>45069</v>
+        <v>45076</v>
+      </c>
+      <c r="F31" s="89">
+        <v>45076</v>
       </c>
       <c r="G31" s="36"/>
-      <c r="H31" s="36">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H31" s="36"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -4750,8 +4808,8 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
@@ -4798,23 +4856,22 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="86" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="40">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E32" s="82">
-        <v>45061</v>
+        <v>45076</v>
       </c>
       <c r="F32" s="82">
-        <f>E32+4</f>
-        <v>45065</v>
+        <v>45079</v>
       </c>
       <c r="G32" s="36"/>
       <c r="H32" s="36">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4828,8 +4885,8 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
@@ -4874,21 +4931,22 @@
       <c r="BL32" s="5"/>
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="40">
+        <v>1</v>
+      </c>
+      <c r="E33" s="82">
+        <v>45078</v>
+      </c>
+      <c r="F33" s="82">
+        <v>45079</v>
+      </c>
       <c r="G33" s="36"/>
-      <c r="H33" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H33" s="36"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -4901,8 +4959,8 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
@@ -4948,22 +5006,17 @@
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
-      <c r="B34" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="83" t="s">
-        <v>23</v>
-      </c>
+      <c r="B34" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="82">
+        <v>45079</v>
+      </c>
+      <c r="F34" s="82"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H34" s="36"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -4976,8 +5029,8 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -5023,21 +5076,23 @@
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="83" t="s">
-        <v>23</v>
+      <c r="B35" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="82">
+        <v>45061</v>
+      </c>
+      <c r="F35" s="82">
+        <v>45079</v>
       </c>
       <c r="G35" s="36"/>
-      <c r="H35" s="36" t="e">
+      <c r="H35" s="36">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>19</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5097,22 +5152,20 @@
       <c r="BL35" s="5"/>
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="83" t="s">
-        <v>23</v>
-      </c>
+      <c r="A36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="36"/>
-      <c r="H36" s="36" t="e">
+      <c r="H36" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5172,20 +5225,22 @@
       <c r="BL36" s="5"/>
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="74"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>23</v>
+      </c>
       <c r="G37" s="36"/>
-      <c r="H37" s="36" t="str">
+      <c r="H37" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5246,15 +5301,15 @@
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
-      <c r="B38" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="84" t="s">
+      <c r="B38" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="83" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="36"/>
@@ -5321,15 +5376,15 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
-      <c r="B39" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="84" t="s">
+      <c r="B39" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="83" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="36"/>
@@ -5395,22 +5450,20 @@
       <c r="BL39" s="5"/>
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="84" t="s">
-        <v>23</v>
-      </c>
+      <c r="A40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="74"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="36" t="e">
+      <c r="H40" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5472,7 +5525,7 @@
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="88" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="46"/>
@@ -5545,18 +5598,22 @@
       <c r="BL41" s="5"/>
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="84" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="36"/>
-      <c r="H42" s="36" t="str">
+      <c r="H42" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -5616,87 +5673,308 @@
       <c r="BL42" s="5"/>
     </row>
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51" t="str">
+      <c r="A43" s="8"/>
+      <c r="B43" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="5"/>
+    </row>
+    <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+    </row>
+    <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
-      <c r="AC43" s="7"/>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
-      <c r="AJ43" s="7"/>
-      <c r="AK43" s="7"/>
-      <c r="AL43" s="7"/>
-      <c r="AM43" s="7"/>
-      <c r="AN43" s="7"/>
-      <c r="AO43" s="7"/>
-      <c r="AP43" s="7"/>
-      <c r="AQ43" s="7"/>
-      <c r="AR43" s="7"/>
-      <c r="AS43" s="7"/>
-      <c r="AT43" s="7"/>
-      <c r="AU43" s="7"/>
-      <c r="AV43" s="7"/>
-      <c r="AW43" s="7"/>
-      <c r="AX43" s="7"/>
-      <c r="AY43" s="7"/>
-      <c r="AZ43" s="7"/>
-      <c r="BA43" s="7"/>
-      <c r="BB43" s="7"/>
-      <c r="BC43" s="7"/>
-      <c r="BD43" s="7"/>
-      <c r="BE43" s="7"/>
-      <c r="BF43" s="7"/>
-      <c r="BG43" s="7"/>
-      <c r="BH43" s="7"/>
-      <c r="BI43" s="7"/>
-      <c r="BJ43" s="7"/>
-      <c r="BK43" s="7"/>
-      <c r="BL43" s="7"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
     </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="3"/>
+    <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="7"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="7"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" s="7"/>
+      <c r="BC46" s="7"/>
+      <c r="BD46" s="7"/>
+      <c r="BE46" s="7"/>
+      <c r="BF46" s="7"/>
+      <c r="BG46" s="7"/>
+      <c r="BH46" s="7"/>
+      <c r="BI46" s="7"/>
+      <c r="BJ46" s="7"/>
+      <c r="BK46" s="7"/>
+      <c r="BL46" s="7"/>
     </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="52"/>
-      <c r="F45" s="53"/>
+    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="3"/>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="54"/>
+    <row r="48" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="52"/>
+      <c r="F48" s="53"/>
+    </row>
+    <row r="49" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5713,7 +5991,7 @@
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D43">
+  <conditionalFormatting sqref="D7:D46">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5727,12 +6005,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL43">
+  <conditionalFormatting sqref="I5:BL46">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL43">
+  <conditionalFormatting sqref="I7:BL46">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -5756,7 +6034,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" max="16383" man="1"/>
+    <brk id="45" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5774,7 +6052,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D43</xm:sqref>
+          <xm:sqref>D7:D46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB944DF-5AB0-4D82-A81C-18BD8BB450AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FB268-BB1C-4FB9-B149-4CC0019933DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1697,23 +1697,23 @@
     <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2325,8 +2325,8 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2378,106 +2378,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="95">
+      <c r="D3" s="95"/>
+      <c r="E3" s="93">
         <v>45028</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E32" s="82">
         <v>45076</v>
@@ -5010,11 +5010,15 @@
         <v>79</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="40"/>
+      <c r="D34" s="40">
+        <v>1</v>
+      </c>
       <c r="E34" s="82">
         <v>45079</v>
       </c>
-      <c r="F34" s="82"/>
+      <c r="F34" s="89">
+        <v>45082</v>
+      </c>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
       <c r="I34" s="5"/>
@@ -5978,17 +5982,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D46">
@@ -6169,15 +6173,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -6186,6 +6181,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6394,14 +6398,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -6414,6 +6410,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FB268-BB1C-4FB9-B149-4CC0019933DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C5678-AC6F-48FF-BA31-1B5BAA39F9E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -1697,6 +1697,12 @@
     <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1708,12 +1714,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2325,8 +2325,8 @@
   <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2378,106 +2378,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93">
+      <c r="D3" s="91"/>
+      <c r="E3" s="95">
         <v>45028</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -5085,18 +5085,18 @@
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E35" s="82">
         <v>45061</v>
       </c>
       <c r="F35" s="82">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="36">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5385,8 +5385,8 @@
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="83" t="s">
-        <v>23</v>
+      <c r="E39" s="83">
+        <v>45083</v>
       </c>
       <c r="F39" s="83" t="s">
         <v>23</v>
@@ -5982,17 +5982,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
   <conditionalFormatting sqref="D7:D46">
@@ -6173,6 +6173,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -6181,15 +6190,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6398,6 +6398,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -6410,14 +6418,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C5678-AC6F-48FF-BA31-1B5BAA39F9E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B2DDB-D0B7-42EA-B3F8-7EB6838080DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -641,6 +641,19 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>問題が極力かぶらないよう調整</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョクリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1697,23 +1710,23 @@
     <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2322,11 +2335,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL49"/>
+  <dimension ref="A1:BL50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2378,106 +2391,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="95">
+      <c r="D3" s="95"/>
+      <c r="E3" s="93">
         <v>45028</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -3042,7 +3055,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H46" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H47" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -5306,21 +5319,20 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="87" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C38" s="19"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="83" t="s">
-        <v>23</v>
+      <c r="D38" s="43">
+        <v>1</v>
+      </c>
+      <c r="E38" s="83">
+        <v>45084</v>
+      </c>
+      <c r="F38" s="83">
+        <v>45085</v>
       </c>
       <c r="G38" s="36"/>
-      <c r="H38" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H38" s="36"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5381,12 +5393,12 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="43"/>
-      <c r="E39" s="83">
-        <v>45083</v>
+      <c r="E39" s="83" t="s">
+        <v>23</v>
       </c>
       <c r="F39" s="83" t="s">
         <v>23</v>
@@ -5454,20 +5466,24 @@
       <c r="BL39" s="5"/>
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="74"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="43">
+        <v>1</v>
+      </c>
+      <c r="E40" s="83">
+        <v>45083</v>
+      </c>
+      <c r="F40" s="83">
+        <v>45084</v>
+      </c>
       <c r="G40" s="36"/>
-      <c r="H40" s="36" t="str">
+      <c r="H40" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5527,22 +5543,20 @@
       <c r="BL40" s="5"/>
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="84" t="s">
-        <v>23</v>
-      </c>
+      <c r="A41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="36" t="e">
+      <c r="H41" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5604,7 +5618,7 @@
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="46"/>
@@ -5679,7 +5693,7 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="46"/>
@@ -5754,7 +5768,7 @@
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="46"/>
@@ -5827,18 +5841,22 @@
       <c r="BL44" s="5"/>
     </row>
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="84" t="s">
+        <v>23</v>
+      </c>
       <c r="G45" s="36"/>
-      <c r="H45" s="36" t="str">
+      <c r="H45" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5898,104 +5916,175 @@
       <c r="BL45" s="5"/>
     </row>
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51" t="str">
+      <c r="A46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="7"/>
-      <c r="AJ46" s="7"/>
-      <c r="AK46" s="7"/>
-      <c r="AL46" s="7"/>
-      <c r="AM46" s="7"/>
-      <c r="AN46" s="7"/>
-      <c r="AO46" s="7"/>
-      <c r="AP46" s="7"/>
-      <c r="AQ46" s="7"/>
-      <c r="AR46" s="7"/>
-      <c r="AS46" s="7"/>
-      <c r="AT46" s="7"/>
-      <c r="AU46" s="7"/>
-      <c r="AV46" s="7"/>
-      <c r="AW46" s="7"/>
-      <c r="AX46" s="7"/>
-      <c r="AY46" s="7"/>
-      <c r="AZ46" s="7"/>
-      <c r="BA46" s="7"/>
-      <c r="BB46" s="7"/>
-      <c r="BC46" s="7"/>
-      <c r="BD46" s="7"/>
-      <c r="BE46" s="7"/>
-      <c r="BF46" s="7"/>
-      <c r="BG46" s="7"/>
-      <c r="BH46" s="7"/>
-      <c r="BI46" s="7"/>
-      <c r="BJ46" s="7"/>
-      <c r="BK46" s="7"/>
-      <c r="BL46" s="7"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G47" s="3"/>
+    <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="49"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+      <c r="AW47" s="7"/>
+      <c r="AX47" s="7"/>
+      <c r="AY47" s="7"/>
+      <c r="AZ47" s="7"/>
+      <c r="BA47" s="7"/>
+      <c r="BB47" s="7"/>
+      <c r="BC47" s="7"/>
+      <c r="BD47" s="7"/>
+      <c r="BE47" s="7"/>
+      <c r="BF47" s="7"/>
+      <c r="BG47" s="7"/>
+      <c r="BH47" s="7"/>
+      <c r="BI47" s="7"/>
+      <c r="BJ47" s="7"/>
+      <c r="BK47" s="7"/>
+      <c r="BL47" s="7"/>
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="52"/>
-      <c r="F48" s="53"/>
+      <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="54"/>
+    <row r="49" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="52"/>
+      <c r="F49" s="53"/>
+    </row>
+    <row r="50" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D46">
+  <conditionalFormatting sqref="D7:D47">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6009,12 +6098,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL46">
+  <conditionalFormatting sqref="I5:BL47">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL46">
+  <conditionalFormatting sqref="I7:BL47">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -6038,7 +6127,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="16383" man="1"/>
+    <brk id="46" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6056,7 +6145,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D46</xm:sqref>
+          <xm:sqref>D7:D47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6173,15 +6262,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -6190,6 +6270,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6398,14 +6487,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -6418,6 +6499,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B2DDB-D0B7-42EA-B3F8-7EB6838080DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D78531-3045-4DCE-8E6E-A3B1B51A33E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -332,16 +332,6 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>チャットボットの語尾を変更</t>
-    <rPh sb="8" eb="10">
-      <t>ゴビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
     <t>一定時間返信がない場合何か返す</t>
     <rPh sb="0" eb="6">
       <t>イッテイジカンヘンシン</t>
@@ -655,6 +645,79 @@
     <rPh sb="12" eb="14">
       <t>チョウセイ</t>
     </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>設定画面を追加</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>自分のアイコン変更機能を移動</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヘンコウキノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>名前の変更機能を移動</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヘンコウキノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>問題のリセット機能を移動</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ボットのアイコン変更機能を移動</t>
+    <rPh sb="8" eb="12">
+      <t>ヘンコウキノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>設定画面をそれぞれのボットに適用</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ボリュームアップ</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1710,6 +1773,12 @@
     <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1721,12 +1790,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2335,11 +2398,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL50"/>
+  <dimension ref="A1:BL56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2391,106 +2454,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93">
+      <c r="D3" s="91"/>
+      <c r="E3" s="95">
         <v>45028</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -3055,7 +3118,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H47" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H53" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -3519,7 +3582,7 @@
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="37">
@@ -3672,7 +3735,7 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="37">
@@ -3746,7 +3809,7 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="37">
@@ -3822,7 +3885,7 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="37">
@@ -3898,7 +3961,7 @@
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="37">
@@ -4125,7 +4188,7 @@
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="40">
@@ -4199,7 +4262,7 @@
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="40">
@@ -4273,7 +4336,7 @@
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="40">
@@ -4425,7 +4488,7 @@
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="40">
@@ -4499,7 +4562,7 @@
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="40">
@@ -4573,7 +4636,7 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="40">
@@ -4647,7 +4710,7 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="40">
@@ -4721,7 +4784,7 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="40">
@@ -4795,7 +4858,7 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="40">
@@ -4869,7 +4932,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="40">
@@ -4946,7 +5009,7 @@
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="40">
@@ -5020,7 +5083,7 @@
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="40">
@@ -5094,7 +5157,7 @@
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="40">
@@ -5244,21 +5307,20 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="87" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C37" s="19"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="83" t="s">
-        <v>23</v>
+      <c r="D37" s="43">
+        <v>1</v>
+      </c>
+      <c r="E37" s="83">
+        <v>45084</v>
+      </c>
+      <c r="F37" s="83">
+        <v>45085</v>
       </c>
       <c r="G37" s="36"/>
-      <c r="H37" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H37" s="36"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5319,20 +5381,23 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="87" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="43">
         <v>1</v>
       </c>
       <c r="E38" s="83">
-        <v>45084</v>
+        <v>45093</v>
       </c>
       <c r="F38" s="83">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="H38" s="36">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5393,21 +5458,20 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="87" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C39" s="19"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="83" t="s">
-        <v>23</v>
+      <c r="D39" s="43">
+        <v>1</v>
+      </c>
+      <c r="E39" s="83">
+        <v>45089</v>
+      </c>
+      <c r="F39" s="83">
+        <v>45093</v>
       </c>
       <c r="G39" s="36"/>
-      <c r="H39" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H39" s="36"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5468,23 +5532,20 @@
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="87" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="43">
         <v>1</v>
       </c>
       <c r="E40" s="83">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="F40" s="83">
-        <v>45084</v>
+        <v>45089</v>
       </c>
       <c r="G40" s="36"/>
-      <c r="H40" s="36">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
+      <c r="H40" s="36"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -5543,21 +5604,22 @@
       <c r="BL40" s="5"/>
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="74"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="43">
+        <v>1</v>
+      </c>
+      <c r="E41" s="83">
+        <v>45090</v>
+      </c>
+      <c r="F41" s="83">
+        <v>45091</v>
+      </c>
       <c r="G41" s="36"/>
-      <c r="H41" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H41" s="36"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -5617,22 +5679,21 @@
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
-      <c r="B42" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="84" t="s">
-        <v>23</v>
+      <c r="B42" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="43">
+        <v>1</v>
+      </c>
+      <c r="E42" s="83">
+        <v>45092</v>
+      </c>
+      <c r="F42" s="83">
+        <v>45092</v>
       </c>
       <c r="G42" s="36"/>
-      <c r="H42" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H42" s="36"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -5692,22 +5753,21 @@
     </row>
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
-      <c r="B43" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="84" t="s">
-        <v>23</v>
+      <c r="B43" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="83">
+        <v>45093</v>
+      </c>
+      <c r="F43" s="83">
+        <v>45093</v>
       </c>
       <c r="G43" s="36"/>
-      <c r="H43" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H43" s="36"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -5767,22 +5827,21 @@
     </row>
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
-      <c r="B44" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="84" t="s">
-        <v>23</v>
+      <c r="B44" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="43">
+        <v>1</v>
+      </c>
+      <c r="E44" s="83">
+        <v>45093</v>
+      </c>
+      <c r="F44" s="83">
+        <v>45093</v>
       </c>
       <c r="G44" s="36"/>
-      <c r="H44" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H44" s="36"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5842,22 +5901,17 @@
     </row>
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
-      <c r="B45" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="84" t="s">
-        <v>23</v>
-      </c>
+      <c r="B45" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="83">
+        <v>45097</v>
+      </c>
+      <c r="F45" s="83"/>
       <c r="G45" s="36"/>
-      <c r="H45" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H45" s="36"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -5916,18 +5970,24 @@
       <c r="BL45" s="5"/>
     </row>
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="43">
+        <v>1</v>
+      </c>
+      <c r="E46" s="83">
+        <v>45083</v>
+      </c>
+      <c r="F46" s="83">
+        <v>45084</v>
+      </c>
       <c r="G46" s="36"/>
-      <c r="H46" s="36" t="str">
+      <c r="H46" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -5987,104 +6047,548 @@
       <c r="BL46" s="5"/>
     </row>
     <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51" t="str">
+      <c r="A47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="7"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
-      <c r="AC47" s="7"/>
-      <c r="AD47" s="7"/>
-      <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
-      <c r="AJ47" s="7"/>
-      <c r="AK47" s="7"/>
-      <c r="AL47" s="7"/>
-      <c r="AM47" s="7"/>
-      <c r="AN47" s="7"/>
-      <c r="AO47" s="7"/>
-      <c r="AP47" s="7"/>
-      <c r="AQ47" s="7"/>
-      <c r="AR47" s="7"/>
-      <c r="AS47" s="7"/>
-      <c r="AT47" s="7"/>
-      <c r="AU47" s="7"/>
-      <c r="AV47" s="7"/>
-      <c r="AW47" s="7"/>
-      <c r="AX47" s="7"/>
-      <c r="AY47" s="7"/>
-      <c r="AZ47" s="7"/>
-      <c r="BA47" s="7"/>
-      <c r="BB47" s="7"/>
-      <c r="BC47" s="7"/>
-      <c r="BD47" s="7"/>
-      <c r="BE47" s="7"/>
-      <c r="BF47" s="7"/>
-      <c r="BG47" s="7"/>
-      <c r="BH47" s="7"/>
-      <c r="BI47" s="7"/>
-      <c r="BJ47" s="7"/>
-      <c r="BK47" s="7"/>
-      <c r="BL47" s="7"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
     </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G48" s="3"/>
+    <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
     </row>
-    <row r="49" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="52"/>
-      <c r="F49" s="53"/>
+    <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
     </row>
-    <row r="50" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="54"/>
+    <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+    </row>
+    <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="5"/>
+      <c r="BK51" s="5"/>
+      <c r="BL51" s="5"/>
+    </row>
+    <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+    </row>
+    <row r="53" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="7"/>
+      <c r="AW53" s="7"/>
+      <c r="AX53" s="7"/>
+      <c r="AY53" s="7"/>
+      <c r="AZ53" s="7"/>
+      <c r="BA53" s="7"/>
+      <c r="BB53" s="7"/>
+      <c r="BC53" s="7"/>
+      <c r="BD53" s="7"/>
+      <c r="BE53" s="7"/>
+      <c r="BF53" s="7"/>
+      <c r="BG53" s="7"/>
+      <c r="BH53" s="7"/>
+      <c r="BI53" s="7"/>
+      <c r="BJ53" s="7"/>
+      <c r="BK53" s="7"/>
+      <c r="BL53" s="7"/>
+    </row>
+    <row r="54" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="52"/>
+      <c r="F55" s="53"/>
+    </row>
+    <row r="56" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D47">
+  <conditionalFormatting sqref="D7:D53">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6098,12 +6602,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL47">
+  <conditionalFormatting sqref="I5:BL53">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL47">
+  <conditionalFormatting sqref="I7:BL53">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -6127,7 +6631,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="16383" man="1"/>
+    <brk id="52" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6145,7 +6649,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D47</xm:sqref>
+          <xm:sqref>D7:D53</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6262,6 +6766,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -6270,15 +6783,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6487,6 +6991,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -6499,14 +7011,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D78531-3045-4DCE-8E6E-A3B1B51A33E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B08C38-EC8A-4F19-A6F3-9CA9ED75C5C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -407,10 +407,6 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>BGM？</t>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
     <t>投稿した時のSE</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -718,6 +714,43 @@
   </si>
   <si>
     <t>ボリュームアップ</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>音量調整</t>
+    <rPh sb="0" eb="4">
+      <t>オンリョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>設定を初期に戻す機能</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ホーム画面の演出追加</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>エンシュツツイカ</t>
+    </rPh>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1773,23 +1806,23 @@
     <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2398,11 +2431,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL56"/>
+  <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2454,106 +2487,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="95">
+      <c r="D3" s="95"/>
+      <c r="E3" s="93">
         <v>45028</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -3118,7 +3151,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H53" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H57" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -3582,7 +3615,7 @@
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="37">
@@ -3735,7 +3768,7 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="37">
@@ -3809,7 +3842,7 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="37">
@@ -3885,7 +3918,7 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="37">
@@ -4188,7 +4221,7 @@
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="40">
@@ -4262,7 +4295,7 @@
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="40">
@@ -4336,7 +4369,7 @@
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="40">
@@ -4488,7 +4521,7 @@
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="40">
@@ -4562,7 +4595,7 @@
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="40">
@@ -4636,7 +4669,7 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="40">
@@ -4710,7 +4743,7 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="40">
@@ -4784,7 +4817,7 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="40">
@@ -4858,7 +4891,7 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="40">
@@ -4932,7 +4965,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="40">
@@ -5009,7 +5042,7 @@
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="40">
@@ -5083,7 +5116,7 @@
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="40">
@@ -5307,7 +5340,7 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="43">
@@ -5458,7 +5491,7 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="43">
@@ -5532,7 +5565,7 @@
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="43">
@@ -5606,7 +5639,7 @@
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="43">
@@ -5680,7 +5713,7 @@
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="43">
@@ -5754,7 +5787,7 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="43">
@@ -5828,7 +5861,7 @@
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="43">
@@ -5902,14 +5935,18 @@
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="19"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="43">
+        <v>1</v>
+      </c>
       <c r="E45" s="83">
         <v>45097</v>
       </c>
-      <c r="F45" s="83"/>
+      <c r="F45" s="83">
+        <v>45098</v>
+      </c>
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
       <c r="I45" s="5"/>
@@ -6200,17 +6237,19 @@
         <v>60</v>
       </c>
       <c r="C49" s="21"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="84" t="s">
-        <v>23</v>
+      <c r="D49" s="46">
+        <v>1</v>
+      </c>
+      <c r="E49" s="84">
+        <v>45099</v>
+      </c>
+      <c r="F49" s="84">
+        <v>45100</v>
       </c>
       <c r="G49" s="36"/>
-      <c r="H49" s="36" t="e">
+      <c r="H49" s="36">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -6272,20 +6311,22 @@
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="88" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C50" s="21"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="84" t="s">
-        <v>23</v>
+      <c r="D50" s="46">
+        <v>1</v>
+      </c>
+      <c r="E50" s="84">
+        <v>45099</v>
+      </c>
+      <c r="F50" s="84">
+        <v>45100</v>
       </c>
       <c r="G50" s="36"/>
-      <c r="H50" s="36" t="e">
+      <c r="H50" s="36">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6347,20 +6388,22 @@
     <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="21"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="84" t="s">
-        <v>23</v>
+      <c r="D51" s="46">
+        <v>1</v>
+      </c>
+      <c r="E51" s="84">
+        <v>45099</v>
+      </c>
+      <c r="F51" s="84">
+        <v>45100</v>
       </c>
       <c r="G51" s="36"/>
-      <c r="H51" s="36" t="e">
+      <c r="H51" s="36">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -6420,19 +6463,22 @@
       <c r="BL51" s="5"/>
     </row>
     <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="46">
+        <v>1</v>
+      </c>
+      <c r="E52" s="84">
+        <v>45103</v>
+      </c>
+      <c r="F52" s="84">
+        <v>45104</v>
+      </c>
       <c r="G52" s="36"/>
-      <c r="H52" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H52" s="36"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -6491,104 +6537,392 @@
       <c r="BL52" s="5"/>
     </row>
     <row r="53" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51" t="str">
+      <c r="A53" s="8"/>
+      <c r="B53" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="46">
+        <v>1</v>
+      </c>
+      <c r="E53" s="84">
+        <v>45104</v>
+      </c>
+      <c r="F53" s="84">
+        <v>45105</v>
+      </c>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
+      <c r="BK53" s="5"/>
+      <c r="BL53" s="5"/>
+    </row>
+    <row r="54" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="84">
+        <v>45104</v>
+      </c>
+      <c r="F54" s="84">
+        <v>45111</v>
+      </c>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
+      <c r="BK54" s="5"/>
+      <c r="BL54" s="5"/>
+    </row>
+    <row r="55" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
-      <c r="AG53" s="7"/>
-      <c r="AH53" s="7"/>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
-      <c r="AM53" s="7"/>
-      <c r="AN53" s="7"/>
-      <c r="AO53" s="7"/>
-      <c r="AP53" s="7"/>
-      <c r="AQ53" s="7"/>
-      <c r="AR53" s="7"/>
-      <c r="AS53" s="7"/>
-      <c r="AT53" s="7"/>
-      <c r="AU53" s="7"/>
-      <c r="AV53" s="7"/>
-      <c r="AW53" s="7"/>
-      <c r="AX53" s="7"/>
-      <c r="AY53" s="7"/>
-      <c r="AZ53" s="7"/>
-      <c r="BA53" s="7"/>
-      <c r="BB53" s="7"/>
-      <c r="BC53" s="7"/>
-      <c r="BD53" s="7"/>
-      <c r="BE53" s="7"/>
-      <c r="BF53" s="7"/>
-      <c r="BG53" s="7"/>
-      <c r="BH53" s="7"/>
-      <c r="BI53" s="7"/>
-      <c r="BJ53" s="7"/>
-      <c r="BK53" s="7"/>
-      <c r="BL53" s="7"/>
-    </row>
-    <row r="54" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="52"/>
-      <c r="F55" s="53"/>
-    </row>
-    <row r="56" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="54"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
+      <c r="AS55" s="5"/>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="5"/>
+      <c r="AV55" s="5"/>
+      <c r="AW55" s="5"/>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="5"/>
+      <c r="BA55" s="5"/>
+      <c r="BB55" s="5"/>
+      <c r="BC55" s="5"/>
+      <c r="BD55" s="5"/>
+      <c r="BE55" s="5"/>
+      <c r="BF55" s="5"/>
+      <c r="BG55" s="5"/>
+      <c r="BH55" s="5"/>
+      <c r="BI55" s="5"/>
+      <c r="BJ55" s="5"/>
+      <c r="BK55" s="5"/>
+      <c r="BL55" s="5"/>
+    </row>
+    <row r="56" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="5"/>
+      <c r="BE56" s="5"/>
+      <c r="BF56" s="5"/>
+      <c r="BG56" s="5"/>
+      <c r="BH56" s="5"/>
+      <c r="BI56" s="5"/>
+      <c r="BJ56" s="5"/>
+      <c r="BK56" s="5"/>
+      <c r="BL56" s="5"/>
+    </row>
+    <row r="57" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="7"/>
+      <c r="AV57" s="7"/>
+      <c r="AW57" s="7"/>
+      <c r="AX57" s="7"/>
+      <c r="AY57" s="7"/>
+      <c r="AZ57" s="7"/>
+      <c r="BA57" s="7"/>
+      <c r="BB57" s="7"/>
+      <c r="BC57" s="7"/>
+      <c r="BD57" s="7"/>
+      <c r="BE57" s="7"/>
+      <c r="BF57" s="7"/>
+      <c r="BG57" s="7"/>
+      <c r="BH57" s="7"/>
+      <c r="BI57" s="7"/>
+      <c r="BJ57" s="7"/>
+      <c r="BK57" s="7"/>
+      <c r="BL57" s="7"/>
+    </row>
+    <row r="58" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="52"/>
+      <c r="F59" s="53"/>
+    </row>
+    <row r="60" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D53">
+  <conditionalFormatting sqref="D7:D57">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6602,12 +6936,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL53">
+  <conditionalFormatting sqref="I5:BL57">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL53">
+  <conditionalFormatting sqref="I7:BL57">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -6631,7 +6965,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="52" max="16383" man="1"/>
+    <brk id="56" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6649,7 +6983,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D53</xm:sqref>
+          <xm:sqref>D7:D57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6766,15 +7100,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -6783,6 +7108,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6991,14 +7325,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -7011,6 +7337,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B08C38-EC8A-4F19-A6F3-9CA9ED75C5C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7BEB5E-1CCE-431D-B1E9-010659A1FC23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -135,9 +135,6 @@
     <t>サンプル フェーズ タイトル ブロック</t>
   </si>
   <si>
-    <t>日付</t>
-  </si>
-  <si>
     <t>これは空の行です</t>
   </si>
   <si>
@@ -384,22 +381,6 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>ボットが投稿した文を読み上げる</t>
-    <rPh sb="4" eb="6">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
     <t>クイズの正誤のSE</t>
     <rPh sb="4" eb="6">
       <t>セイゴ</t>
@@ -750,6 +731,29 @@
     </rPh>
     <rPh sb="6" eb="10">
       <t>エンシュツツイカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ニュースボットの追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>検索ワードでエラーが出た時の処理</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -2431,11 +2435,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL60"/>
+  <dimension ref="A1:BL61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2474,7 +2478,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>4</v>
@@ -2485,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="94" t="s">
         <v>6</v>
@@ -3143,7 +3147,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="35"/>
@@ -3151,7 +3155,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H57" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H58" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -3216,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="37">
@@ -3294,10 +3298,10 @@
     </row>
     <row r="10" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="37">
@@ -3378,7 +3382,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="37">
@@ -3457,7 +3461,7 @@
     <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="37">
@@ -3536,7 +3540,7 @@
     <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="37">
@@ -3615,7 +3619,7 @@
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="37">
@@ -3689,7 +3693,7 @@
     <row r="15" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="37">
@@ -3768,7 +3772,7 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="37">
@@ -3842,7 +3846,7 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="37">
@@ -3918,7 +3922,7 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="37">
@@ -3994,7 +3998,7 @@
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="37">
@@ -4072,7 +4076,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="39"/>
@@ -4143,7 +4147,7 @@
     <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="40">
@@ -4221,7 +4225,7 @@
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="40">
@@ -4295,7 +4299,7 @@
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="40">
@@ -4369,7 +4373,7 @@
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="40">
@@ -4443,7 +4447,7 @@
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="40">
@@ -4521,7 +4525,7 @@
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="40">
@@ -4595,7 +4599,7 @@
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="40">
@@ -4669,7 +4673,7 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="40">
@@ -4743,7 +4747,7 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="40">
@@ -4817,7 +4821,7 @@
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="40">
@@ -4891,7 +4895,7 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="86" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="40">
@@ -4965,7 +4969,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="40">
@@ -5042,7 +5046,7 @@
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="40">
@@ -5116,7 +5120,7 @@
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="40">
@@ -5190,7 +5194,7 @@
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="40">
@@ -5269,7 +5273,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="42"/>
@@ -5340,7 +5344,7 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="43">
@@ -5414,7 +5418,7 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="43">
@@ -5491,7 +5495,7 @@
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="87" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="43">
@@ -5565,7 +5569,7 @@
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="43">
@@ -5639,7 +5643,7 @@
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="43">
@@ -5713,7 +5717,7 @@
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="43">
@@ -5787,7 +5791,7 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="43">
@@ -5861,7 +5865,7 @@
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="43">
@@ -5935,7 +5939,7 @@
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="43">
@@ -6009,7 +6013,7 @@
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="43">
@@ -6088,7 +6092,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="45"/>
@@ -6159,20 +6163,22 @@
     <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="21"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="84" t="s">
-        <v>23</v>
+      <c r="D48" s="46">
+        <v>1</v>
+      </c>
+      <c r="E48" s="84">
+        <v>45099</v>
+      </c>
+      <c r="F48" s="84">
+        <v>45100</v>
       </c>
       <c r="G48" s="36"/>
-      <c r="H48" s="36" t="e">
+      <c r="H48" s="36">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>2</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6234,7 +6240,7 @@
     <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="88" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="46">
@@ -6311,7 +6317,7 @@
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="88" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="46">
@@ -6388,23 +6394,20 @@
     <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="88" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="46">
         <v>1</v>
       </c>
       <c r="E51" s="84">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="F51" s="84">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G51" s="36"/>
-      <c r="H51" s="36">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
+      <c r="H51" s="36"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -6465,17 +6468,17 @@
     <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="46">
         <v>1</v>
       </c>
       <c r="E52" s="84">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F52" s="84">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -6539,7 +6542,7 @@
     <row r="53" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="46">
@@ -6549,7 +6552,7 @@
         <v>45104</v>
       </c>
       <c r="F53" s="84">
-        <v>45105</v>
+        <v>45111</v>
       </c>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
@@ -6613,17 +6616,17 @@
     <row r="54" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E54" s="84">
-        <v>45104</v>
+        <v>45112</v>
       </c>
       <c r="F54" s="84">
-        <v>45111</v>
+        <v>45114</v>
       </c>
       <c r="G54" s="36"/>
       <c r="H54" s="36"/>
@@ -6686,16 +6689,17 @@
     </row>
     <row r="55" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
-      <c r="B55" s="88"/>
+      <c r="B55" s="88" t="s">
+        <v>89</v>
+      </c>
       <c r="C55" s="21"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="84"/>
+      <c r="E55" s="84">
+        <v>45118</v>
+      </c>
       <c r="F55" s="84"/>
       <c r="G55" s="36"/>
-      <c r="H55" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H55" s="36"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -6754,14 +6758,12 @@
       <c r="BL55" s="5"/>
     </row>
     <row r="56" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36" t="str">
         <f t="shared" si="5"/>
@@ -6825,87 +6827,158 @@
       <c r="BL56" s="5"/>
     </row>
     <row r="57" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51" t="str">
+      <c r="A57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="7"/>
-      <c r="AJ57" s="7"/>
-      <c r="AK57" s="7"/>
-      <c r="AL57" s="7"/>
-      <c r="AM57" s="7"/>
-      <c r="AN57" s="7"/>
-      <c r="AO57" s="7"/>
-      <c r="AP57" s="7"/>
-      <c r="AQ57" s="7"/>
-      <c r="AR57" s="7"/>
-      <c r="AS57" s="7"/>
-      <c r="AT57" s="7"/>
-      <c r="AU57" s="7"/>
-      <c r="AV57" s="7"/>
-      <c r="AW57" s="7"/>
-      <c r="AX57" s="7"/>
-      <c r="AY57" s="7"/>
-      <c r="AZ57" s="7"/>
-      <c r="BA57" s="7"/>
-      <c r="BB57" s="7"/>
-      <c r="BC57" s="7"/>
-      <c r="BD57" s="7"/>
-      <c r="BE57" s="7"/>
-      <c r="BF57" s="7"/>
-      <c r="BG57" s="7"/>
-      <c r="BH57" s="7"/>
-      <c r="BI57" s="7"/>
-      <c r="BJ57" s="7"/>
-      <c r="BK57" s="7"/>
-      <c r="BL57" s="7"/>
-    </row>
-    <row r="58" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="3"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="5"/>
+      <c r="AS57" s="5"/>
+      <c r="AT57" s="5"/>
+      <c r="AU57" s="5"/>
+      <c r="AV57" s="5"/>
+      <c r="AW57" s="5"/>
+      <c r="AX57" s="5"/>
+      <c r="AY57" s="5"/>
+      <c r="AZ57" s="5"/>
+      <c r="BA57" s="5"/>
+      <c r="BB57" s="5"/>
+      <c r="BC57" s="5"/>
+      <c r="BD57" s="5"/>
+      <c r="BE57" s="5"/>
+      <c r="BF57" s="5"/>
+      <c r="BG57" s="5"/>
+      <c r="BH57" s="5"/>
+      <c r="BI57" s="5"/>
+      <c r="BJ57" s="5"/>
+      <c r="BK57" s="5"/>
+      <c r="BL57" s="5"/>
+    </row>
+    <row r="58" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="7"/>
+      <c r="AS58" s="7"/>
+      <c r="AT58" s="7"/>
+      <c r="AU58" s="7"/>
+      <c r="AV58" s="7"/>
+      <c r="AW58" s="7"/>
+      <c r="AX58" s="7"/>
+      <c r="AY58" s="7"/>
+      <c r="AZ58" s="7"/>
+      <c r="BA58" s="7"/>
+      <c r="BB58" s="7"/>
+      <c r="BC58" s="7"/>
+      <c r="BD58" s="7"/>
+      <c r="BE58" s="7"/>
+      <c r="BF58" s="7"/>
+      <c r="BG58" s="7"/>
+      <c r="BH58" s="7"/>
+      <c r="BI58" s="7"/>
+      <c r="BJ58" s="7"/>
+      <c r="BK58" s="7"/>
+      <c r="BL58" s="7"/>
     </row>
     <row r="59" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="52"/>
-      <c r="F59" s="53"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="54"/>
+      <c r="C60" s="52"/>
+      <c r="F60" s="53"/>
+    </row>
+    <row r="61" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6922,7 +6995,7 @@
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D57">
+  <conditionalFormatting sqref="D7:D58">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -6936,12 +7009,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL57">
+  <conditionalFormatting sqref="I5:BL58">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL57">
+  <conditionalFormatting sqref="I7:BL58">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -6965,7 +7038,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="56" max="16383" man="1"/>
+    <brk id="57" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6983,7 +7056,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D57</xm:sqref>
+          <xm:sqref>D7:D58</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7019,67 +7092,67 @@
     </row>
     <row r="4" spans="1:2" s="63" customFormat="1" ht="27" x14ac:dyDescent="0.5">
       <c r="A4" s="62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="55" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="63" customFormat="1" ht="27" x14ac:dyDescent="0.5">
       <c r="A8" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="55" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="63" customFormat="1" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="55" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="63" customFormat="1" ht="27" x14ac:dyDescent="0.5">
       <c r="A14" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/2016031_HappyCat.xlsx
+++ b/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7BEB5E-1CCE-431D-B1E9-010659A1FC23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7BD5D9-86F9-4079-98B3-72E477B5D0CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -358,19 +358,6 @@
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>時間を聞いたら教えてくれる</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オシ</t>
-    </rPh>
-    <phoneticPr fontId="29"/>
-  </si>
-  <si>
     <t>各ボットのボリュームを増やす</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -754,6 +741,46 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>画像検索ボットの追加</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>アプリアイコンにボールが当たった際の演出追加</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>記事の投稿時間の表示</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トウコウジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>記事の全文のURLを添付</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンプ</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1810,6 +1837,12 @@
     <xf numFmtId="181" fontId="0" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1821,12 +1854,6 @@
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2435,11 +2462,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL61"/>
+  <dimension ref="A1:BL64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="6" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2491,106 +2518,106 @@
       <c r="B3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93">
+      <c r="D3" s="91"/>
+      <c r="E3" s="95">
         <v>45028</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -3155,7 +3182,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H58" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H61" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -3619,7 +3646,7 @@
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="37">
@@ -3772,7 +3799,7 @@
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="37">
@@ -3846,7 +3873,7 @@
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="37">
@@ -3922,7 +3949,7 @@
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="37">
@@ -3996,24 +4023,21 @@
       <c r="BL18" s="5"/>
     </row>
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="37">
-        <v>0</v>
-      </c>
-      <c r="E19" s="81">
-        <f>F18</f>
-        <v>45052</v>
-      </c>
-      <c r="F19" s="81">
-        <f>E19+1</f>
-        <v>45053</v>
-      </c>
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="H19" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -4072,20 +4096,24 @@
       <c r="BL19" s="5"/>
     </row>
     <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="40">
+        <v>1</v>
+      </c>
+      <c r="E20" s="82">
+        <v>45055</v>
+      </c>
+      <c r="F20" s="82">
+        <v>45056</v>
+      </c>
       <c r="G20" s="36"/>
-      <c r="H20" s="36" t="str">
+      <c r="H20" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -4147,24 +4175,20 @@
     <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="86" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="40">
         <v>1</v>
       </c>
       <c r="E21" s="82">
-        <f>F19+1</f>
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="F21" s="82">
         <v>45056</v>
       </c>
       <c r="G21" s="36"/>
-      <c r="H21" s="36">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="H21" s="36"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -4225,17 +4249,17 @@
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="40">
         <v>1</v>
       </c>
       <c r="E22" s="82">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="F22" s="82">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
@@ -4306,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="82">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F23" s="82">
         <v>45057</v>
@@ -4373,20 +4397,24 @@
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="86" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="40">
         <v>1</v>
       </c>
       <c r="E24" s="82">
-        <v>45057</v>
+        <f>F20+3</f>
+        <v>45059</v>
       </c>
       <c r="F24" s="82">
-        <v>45057</v>
+        <v>45062</v>
       </c>
       <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="H24" s="36">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4447,24 +4475,20 @@
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="86" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
       <c r="E25" s="82">
-        <f>F21+3</f>
-        <v>45059</v>
+        <v>45063</v>
       </c>
       <c r="F25" s="82">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="G25" s="36"/>
-      <c r="H25" s="36">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="H25" s="36"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4532,10 +4556,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="82">
-        <v>45063</v>
+        <v>45068</v>
       </c>
       <c r="F26" s="82">
-        <v>45064</v>
+        <v>45068</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
@@ -4606,10 +4630,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="82">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="F27" s="82">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
@@ -4673,17 +4697,17 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="86" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
       <c r="E28" s="82">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="F28" s="82">
-        <v>45069</v>
+        <v>45072</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
@@ -4747,17 +4771,17 @@
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="86" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
       <c r="E29" s="82">
-        <v>45070</v>
+        <v>45075</v>
       </c>
       <c r="F29" s="82">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
@@ -4828,9 +4852,9 @@
         <v>1</v>
       </c>
       <c r="E30" s="82">
-        <v>45075</v>
-      </c>
-      <c r="F30" s="82">
+        <v>45076</v>
+      </c>
+      <c r="F30" s="89">
         <v>45076</v>
       </c>
       <c r="G30" s="36"/>
@@ -4893,9 +4917,9 @@
       <c r="BL30" s="5"/>
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="40">
@@ -4904,11 +4928,14 @@
       <c r="E31" s="82">
         <v>45076</v>
       </c>
-      <c r="F31" s="89">
-        <v>45076</v>
+      <c r="F31" s="82">
+        <v>45079</v>
       </c>
       <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
+      <c r="H31" s="36">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -4921,8 +4948,8 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
@@ -4969,23 +4996,20 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="86" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
       <c r="E32" s="82">
-        <v>45076</v>
+        <v>45078</v>
       </c>
       <c r="F32" s="82">
         <v>45079</v>
       </c>
       <c r="G32" s="36"/>
-      <c r="H32" s="36">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="H32" s="36"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -5053,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="82">
-        <v>45078</v>
-      </c>
-      <c r="F33" s="82">
         <v>45079</v>
+      </c>
+      <c r="F33" s="89">
+        <v>45082</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
@@ -5120,20 +5144,23 @@
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="86" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
       <c r="E34" s="82">
-        <v>45079</v>
-      </c>
-      <c r="F34" s="89">
-        <v>45082</v>
+        <v>45061</v>
+      </c>
+      <c r="F34" s="82">
+        <v>45083</v>
       </c>
       <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="H34" s="36">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -5146,8 +5173,8 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -5192,24 +5219,20 @@
       <c r="BL34" s="5"/>
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="40">
-        <v>1</v>
-      </c>
-      <c r="E35" s="82">
-        <v>45061</v>
-      </c>
-      <c r="F35" s="82">
-        <v>45083</v>
-      </c>
+      <c r="A35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="36"/>
-      <c r="H35" s="36">
+      <c r="H35" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v/>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5269,21 +5292,22 @@
       <c r="BL35" s="5"/>
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="43">
+        <v>1</v>
+      </c>
+      <c r="E36" s="83">
+        <v>45084</v>
+      </c>
+      <c r="F36" s="83">
+        <v>45085</v>
+      </c>
       <c r="G36" s="36"/>
-      <c r="H36" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H36" s="36"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5344,20 +5368,23 @@
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="87" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="43">
         <v>1</v>
       </c>
       <c r="E37" s="83">
-        <v>45084</v>
+        <v>45093</v>
       </c>
       <c r="F37" s="83">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="H37" s="36">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5418,23 +5445,20 @@
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="87" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="43">
         <v>1</v>
       </c>
       <c r="E38" s="83">
+        <v>45089</v>
+      </c>
+      <c r="F38" s="83">
         <v>45093</v>
       </c>
-      <c r="F38" s="83">
-        <v>45096</v>
-      </c>
       <c r="G38" s="36"/>
-      <c r="H38" s="36">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="H38" s="36"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5505,7 +5529,7 @@
         <v>45089</v>
       </c>
       <c r="F39" s="83">
-        <v>45093</v>
+        <v>45089</v>
       </c>
       <c r="G39" s="36"/>
       <c r="H39" s="36"/>
@@ -5576,10 +5600,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="83">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="F40" s="83">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
@@ -5650,10 +5674,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="83">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="F41" s="83">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
@@ -5717,17 +5741,17 @@
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="43">
         <v>1</v>
       </c>
       <c r="E42" s="83">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="F42" s="83">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
@@ -5791,7 +5815,7 @@
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="43">
@@ -5865,17 +5889,17 @@
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="43">
         <v>1</v>
       </c>
       <c r="E44" s="83">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="F44" s="83">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
@@ -5939,20 +5963,23 @@
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="87" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="43">
         <v>1</v>
       </c>
       <c r="E45" s="83">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="F45" s="83">
-        <v>45098</v>
+        <v>45084</v>
       </c>
       <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="H45" s="36">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -6011,24 +6038,20 @@
       <c r="BL45" s="5"/>
     </row>
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="43">
-        <v>1</v>
-      </c>
-      <c r="E46" s="83">
-        <v>45083</v>
-      </c>
-      <c r="F46" s="83">
-        <v>45084</v>
-      </c>
+      <c r="A46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="74"/>
       <c r="G46" s="36"/>
-      <c r="H46" s="36">
+      <c r="H46" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -6088,20 +6111,24 @@
       <c r="BL46" s="5"/>
     </row>
     <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="46">
+        <v>1</v>
+      </c>
+      <c r="E47" s="84">
+        <v>45099</v>
+      </c>
+      <c r="F47" s="84">
+        <v>45100</v>
+      </c>
       <c r="G47" s="36"/>
-      <c r="H47" s="36" t="str">
+      <c r="H47" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -6163,7 +6190,7 @@
     <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="88" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="46">
@@ -6240,7 +6267,7 @@
     <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="88" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="46">
@@ -6317,23 +6344,20 @@
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="88" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="46">
         <v>1</v>
       </c>
       <c r="E50" s="84">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="F50" s="84">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G50" s="36"/>
-      <c r="H50" s="36">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
+      <c r="H50" s="36"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6401,10 +6425,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="84">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F51" s="84">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="36"/>
@@ -6478,7 +6502,7 @@
         <v>45104</v>
       </c>
       <c r="F52" s="84">
-        <v>45105</v>
+        <v>45111</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -6549,10 +6573,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="84">
-        <v>45104</v>
+        <v>45112</v>
       </c>
       <c r="F53" s="84">
-        <v>45111</v>
+        <v>45114</v>
       </c>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
@@ -6623,10 +6647,10 @@
         <v>1</v>
       </c>
       <c r="E54" s="84">
-        <v>45112</v>
+        <v>45118</v>
       </c>
       <c r="F54" s="84">
-        <v>45114</v>
+        <v>45119</v>
       </c>
       <c r="G54" s="36"/>
       <c r="H54" s="36"/>
@@ -6690,14 +6714,18 @@
     <row r="55" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C55" s="21"/>
-      <c r="D55" s="46"/>
+      <c r="D55" s="46">
+        <v>1</v>
+      </c>
       <c r="E55" s="84">
-        <v>45118</v>
-      </c>
-      <c r="F55" s="84"/>
+        <v>45119</v>
+      </c>
+      <c r="F55" s="84">
+        <v>45120</v>
+      </c>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
       <c r="I55" s="5"/>
@@ -6759,16 +6787,21 @@
     </row>
     <row r="56" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="88" t="s">
+        <v>92</v>
+      </c>
       <c r="C56" s="21"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
+      <c r="D56" s="46">
+        <v>1</v>
+      </c>
+      <c r="E56" s="84">
+        <v>45120</v>
+      </c>
+      <c r="F56" s="84">
+        <v>45121</v>
+      </c>
       <c r="G56" s="36"/>
-      <c r="H56" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H56" s="36"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -6827,19 +6860,22 @@
       <c r="BL56" s="5"/>
     </row>
     <row r="57" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="46">
+        <v>1</v>
+      </c>
+      <c r="E57" s="84">
+        <v>45124</v>
+      </c>
+      <c r="F57" s="84">
+        <v>45126</v>
+      </c>
       <c r="G57" s="36"/>
-      <c r="H57" s="36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H57" s="36"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -6898,104 +6934,318 @@
       <c r="BL57" s="5"/>
     </row>
     <row r="58" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51" t="str">
+      <c r="A58" s="8"/>
+      <c r="B58" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="46">
+        <v>1</v>
+      </c>
+      <c r="E58" s="84">
+        <v>45126</v>
+      </c>
+      <c r="F58" s="84">
+        <v>45127</v>
+      </c>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
+      <c r="AS58" s="5"/>
+      <c r="AT58" s="5"/>
+      <c r="AU58" s="5"/>
+      <c r="AV58" s="5"/>
+      <c r="AW58" s="5"/>
+      <c r="AX58" s="5"/>
+      <c r="AY58" s="5"/>
+      <c r="AZ58" s="5"/>
+      <c r="BA58" s="5"/>
+      <c r="BB58" s="5"/>
+      <c r="BC58" s="5"/>
+      <c r="BD58" s="5"/>
+      <c r="BE58" s="5"/>
+      <c r="BF58" s="5"/>
+      <c r="BG58" s="5"/>
+      <c r="BH58" s="5"/>
+      <c r="BI58" s="5"/>
+      <c r="BJ58" s="5"/>
+      <c r="BK58" s="5"/>
+      <c r="BL58" s="5"/>
+    </row>
+    <row r="59" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="7"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="7"/>
-      <c r="AJ58" s="7"/>
-      <c r="AK58" s="7"/>
-      <c r="AL58" s="7"/>
-      <c r="AM58" s="7"/>
-      <c r="AN58" s="7"/>
-      <c r="AO58" s="7"/>
-      <c r="AP58" s="7"/>
-      <c r="AQ58" s="7"/>
-      <c r="AR58" s="7"/>
-      <c r="AS58" s="7"/>
-      <c r="AT58" s="7"/>
-      <c r="AU58" s="7"/>
-      <c r="AV58" s="7"/>
-      <c r="AW58" s="7"/>
-      <c r="AX58" s="7"/>
-      <c r="AY58" s="7"/>
-      <c r="AZ58" s="7"/>
-      <c r="BA58" s="7"/>
-      <c r="BB58" s="7"/>
-      <c r="BC58" s="7"/>
-      <c r="BD58" s="7"/>
-      <c r="BE58" s="7"/>
-      <c r="BF58" s="7"/>
-      <c r="BG58" s="7"/>
-      <c r="BH58" s="7"/>
-      <c r="BI58" s="7"/>
-      <c r="BJ58" s="7"/>
-      <c r="BK58" s="7"/>
-      <c r="BL58" s="7"/>
-    </row>
-    <row r="59" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="52"/>
-      <c r="F60" s="53"/>
-    </row>
-    <row r="61" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="54"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="5"/>
+      <c r="AS59" s="5"/>
+      <c r="AT59" s="5"/>
+      <c r="AU59" s="5"/>
+      <c r="AV59" s="5"/>
+      <c r="AW59" s="5"/>
+      <c r="AX59" s="5"/>
+      <c r="AY59" s="5"/>
+      <c r="AZ59" s="5"/>
+      <c r="BA59" s="5"/>
+      <c r="BB59" s="5"/>
+      <c r="BC59" s="5"/>
+      <c r="BD59" s="5"/>
+      <c r="BE59" s="5"/>
+      <c r="BF59" s="5"/>
+      <c r="BG59" s="5"/>
+      <c r="BH59" s="5"/>
+      <c r="BI59" s="5"/>
+      <c r="BJ59" s="5"/>
+      <c r="BK59" s="5"/>
+      <c r="BL59" s="5"/>
+    </row>
+    <row r="60" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="5"/>
+      <c r="AS60" s="5"/>
+      <c r="AT60" s="5"/>
+      <c r="AU60" s="5"/>
+      <c r="AV60" s="5"/>
+      <c r="AW60" s="5"/>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="5"/>
+      <c r="BA60" s="5"/>
+      <c r="BB60" s="5"/>
+      <c r="BC60" s="5"/>
+      <c r="BD60" s="5"/>
+      <c r="BE60" s="5"/>
+      <c r="BF60" s="5"/>
+      <c r="BG60" s="5"/>
+      <c r="BH60" s="5"/>
+      <c r="BI60" s="5"/>
+      <c r="BJ60" s="5"/>
+      <c r="BK60" s="5"/>
+      <c r="BL60" s="5"/>
+    </row>
+    <row r="61" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+      <c r="AW61" s="7"/>
+      <c r="AX61" s="7"/>
+      <c r="AY61" s="7"/>
+      <c r="AZ61" s="7"/>
+      <c r="BA61" s="7"/>
+      <c r="BB61" s="7"/>
+      <c r="BC61" s="7"/>
+      <c r="BD61" s="7"/>
+      <c r="BE61" s="7"/>
+      <c r="BF61" s="7"/>
+      <c r="BG61" s="7"/>
+      <c r="BH61" s="7"/>
+      <c r="BI61" s="7"/>
+      <c r="BJ61" s="7"/>
+      <c r="BK61" s="7"/>
+      <c r="BL61" s="7"/>
+    </row>
+    <row r="62" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="52"/>
+      <c r="F63" s="53"/>
+    </row>
+    <row r="64" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D58">
+  <conditionalFormatting sqref="D7:D61">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7009,12 +7259,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL58">
+  <conditionalFormatting sqref="I5:BL61">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL58">
+  <conditionalFormatting sqref="I7:BL61">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -7038,7 +7288,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="57" max="16383" man="1"/>
+    <brk id="60" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -7056,7 +7306,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D58</xm:sqref>
+          <xm:sqref>D7:D61</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7173,6 +7423,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -7181,15 +7440,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7398,6 +7648,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -7410,14 +7668,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
